--- a/data/diccionario_hashtags.xlsx
+++ b/data/diccionario_hashtags.xlsx
@@ -1,184 +1,191 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upperu-my.sharepoint.com/personal/ss_sotelog_alum_up_edu_pe/Documents/(TRABAJO) Apoyo Sandro Macassi/proyecto1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A1C57C0067912D08B631231E1A0A53F3AAB0E9DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437EFF77-C6DA-4752-844A-2D85C7DA6702}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t xml:space="preserve">pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashtag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TipoHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Hashtag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr+lbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FechaPub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana en la que se realizó la recolección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vértices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuarios en el Hashtag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interacciones en el Hashtag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComConec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Componentes Conectactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvGeoDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio de la Distancia Geodésica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraDens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Densidad del Gráfico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinInDeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-Degree Mínimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxInDeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-Degree Máximo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinOuDeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-Degree Mínimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxOuDeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-Degree Máximo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvBetCen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio de la Centralidad de Intermediación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvCloCen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio de la Centralidad de Cercanía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvEigCen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio de la Centralidad de Eigenvector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SentPos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palabras de Sentimiento Positivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SenPor_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de Sentimiento Positvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SentNeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palabras de Sentimiento Negativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SenNeg_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de Sentimiento Negativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SentCuar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuartiles de Sentimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3, 4, 5, 6, 7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>col_type</t>
+  </si>
+  <si>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>value_labels</t>
+  </si>
+  <si>
+    <t>Hashtag</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TipoHT</t>
+  </si>
+  <si>
+    <t>Tipo de Hashtag</t>
+  </si>
+  <si>
+    <t>chr+lbl</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>FechaPub</t>
+  </si>
+  <si>
+    <t>Semana en la que se realizó la recolección</t>
+  </si>
+  <si>
+    <t>dbl</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Vértices</t>
+  </si>
+  <si>
+    <t>Usuarios en el Hashtag</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
+    <t>Interacciones en el Hashtag</t>
+  </si>
+  <si>
+    <t>ComConec</t>
+  </si>
+  <si>
+    <t>Componentes Conectactos</t>
+  </si>
+  <si>
+    <t>AvGeoDis</t>
+  </si>
+  <si>
+    <t>Promedio de la Distancia Geodésica</t>
+  </si>
+  <si>
+    <t>GraDens</t>
+  </si>
+  <si>
+    <t>Densidad del Gráfico</t>
+  </si>
+  <si>
+    <t>MinInDeg</t>
+  </si>
+  <si>
+    <t>In-Degree Mínimo</t>
+  </si>
+  <si>
+    <t>MaxInDeg</t>
+  </si>
+  <si>
+    <t>In-Degree Máximo</t>
+  </si>
+  <si>
+    <t>MinOuDeg</t>
+  </si>
+  <si>
+    <t>Out-Degree Mínimo</t>
+  </si>
+  <si>
+    <t>MaxOuDeg</t>
+  </si>
+  <si>
+    <t>Out-Degree Máximo</t>
+  </si>
+  <si>
+    <t>AvBetCen</t>
+  </si>
+  <si>
+    <t>Promedio de la Centralidad de Intermediación</t>
+  </si>
+  <si>
+    <t>AvCloCen</t>
+  </si>
+  <si>
+    <t>Promedio de la Centralidad de Cercanía</t>
+  </si>
+  <si>
+    <t>AvEigCen</t>
+  </si>
+  <si>
+    <t>Promedio de la Centralidad de Eigenvector</t>
+  </si>
+  <si>
+    <t>SentPos</t>
+  </si>
+  <si>
+    <t>Palabras de Sentimiento Positivo</t>
+  </si>
+  <si>
+    <t>SenPor_p</t>
+  </si>
+  <si>
+    <t>Porcentaje de Sentimiento Positvo</t>
+  </si>
+  <si>
+    <t>SentNeg</t>
+  </si>
+  <si>
+    <t>Palabras de Sentimiento Negativo</t>
+  </si>
+  <si>
+    <t>SenNeg_p</t>
+  </si>
+  <si>
+    <t>Porcentaje de Sentimiento Negativo</t>
+  </si>
+  <si>
+    <t>SentCuar</t>
+  </si>
+  <si>
+    <t>Cuartiles de Sentimiento</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,19 +221,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F22" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F22"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F22" totalsRowShown="0">
+  <autoFilter ref="A1:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="pos"/>
-    <tableColumn id="2" name="variable"/>
-    <tableColumn id="3" name="label"/>
-    <tableColumn id="4" name="col_type"/>
-    <tableColumn id="5" name="levels"/>
-    <tableColumn id="6" name="value_labels"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="pos"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="variable"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="label"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="col_type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="levels"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="value_labels"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,14 +526,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="45.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,14 +556,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -555,8 +573,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -575,8 +593,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -595,14 +613,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>11</v>
       </c>
@@ -613,8 +630,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -633,8 +650,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -653,8 +670,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -673,8 +690,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -693,8 +710,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -713,8 +730,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -733,8 +750,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -753,8 +770,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -773,8 +790,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -793,8 +810,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -813,8 +830,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -833,8 +850,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -853,8 +870,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -873,8 +890,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -893,8 +910,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -913,8 +930,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -933,8 +950,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -955,9 +972,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>